--- a/biology/Botanique/Equisetum/Equisetum.xlsx
+++ b/biology/Botanique/Equisetum/Equisetum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equisetum (Prêle) est un genre de plantes de la sous-classe des  Équisétidés (Equisetidae), les prêles. Toutes les prêles actuelles sont classées dans ce genre et forment la famille des Équisétacées (Equisetaceaee), issue de la seule lignée survivante de ce groupe très diversifié pendant le Carbonifère.
 Ce sont toutes des espèces herbacées, alors que d'autres familles de prêles aujourd'hui éteintes étaient composées d'espèces arborescentes.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot prêle est la contraction de asprele qui dérive du latin asper [rude, rugueux] en rapport avec la propriété abrasive de ces plantes riches en silice. Equisetum vient du latin equus [cheval] et seta [soie, crin]. Les Prêles étaient autrefois connues sous le nom de « Queue-de-cheval ».
 </t>
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prêles sont des plantes herbacées vivaces, rhizomateuses, qui ont une tige nettement articulée, des microphylles écailleuses en verticille au niveau des nœuds. C'est aussi sur ces nœuds que viennent s'insérer les rameaux des espèces ramifiées. Les tiges sont cannelées et présentent un épiderme siliceux. L'anatomie des tiges est complexe et montre un cordon de canaux carinaux entourant l'espace interne du chaume.
 Les prêles sont hétérosporés mais dotées d'une isosporie apparente. Selon les espèces, on observe soit des tiges fertiles particulières peu chlorophylliennes portant des strobiles à leur sommet, soit le développement de strobiles à l'extrémité des tiges végétatives.
 Les gamétophytes issus des spores sont soit bisexués, soit mâles uniquement et la fécondation est la plupart du temps croisée.
 Ce sont les tiges stériles vertes qui viennent ensuite qui sont consommées.
 La multiplication végétative importante et la résistance aux herbicides peuvent rendre les prêles parfois envahissantes.
-L'identification des Equisetum demande le plus souvent l'examen à la loupe des cavités de la tige. On devra donc, soit sectionner la tige à l'état frais sur le terrain et noter le croquis de la section, soit ramollir après coup un fragment de tige dans l'eau très chaude, et sectionner[4].
+L'identification des Equisetum demande le plus souvent l'examen à la loupe des cavités de la tige. On devra donc, soit sectionner la tige à l'état frais sur le terrain et noter le croquis de la section, soit ramollir après coup un fragment de tige dans l'eau très chaude, et sectionner.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Equisetum sont naturellement dispersés à travers le monde entier, à l’exception de l’Australie, la Nouvelle-Zélande et des îles de l’océan Indien, de l’océan Pacifique Central et des îles de l’océan Atlantique Sud. Elles vont croître dans des environnements humides, tels que les fossés, les terres humides, les forêts humides et en bordures des routes (lorsque l’apport en eau souterraine est disponible en quantité suffisante)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Equisetum sont naturellement dispersés à travers le monde entier, à l’exception de l’Australie, la Nouvelle-Zélande et des îles de l’océan Indien, de l’océan Pacifique Central et des îles de l’océan Atlantique Sud. Elles vont croître dans des environnements humides, tels que les fossés, les terres humides, les forêts humides et en bordures des routes (lorsque l’apport en eau souterraine est disponible en quantité suffisante).
 </t>
         </is>
       </c>
@@ -610,11 +628,13 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ptéridophytes du genre Equisetum possèdent plusieurs moyens de reproduction. D’abord, ils peuvent se reproduire par la reproduction sexuée, en produisant des spores. Leurs spores possèdent des structures hydroscopiques, donc elles se dilatent et se contractent au contact de l’eau. Ces structures ont probablement pour fonction d’aider à la dispersion dans l’environnement. Les spores des Equisetum ont une vie de courte durée, mais elles ont une capacité de germination très rapide. En effet, elles peuvent germer en moins de 24 heures après avoir été relâchées. Leur longévité dépend de l’humidité de l’environnement, mais leur durée maximale de germination va de 5 à 17 jours. Si elles dépassent cette durée, elles perdent leur capacité de germination. Il existe cependant certaines conditions où une spore peut conserver sa capacité germinatrice jusqu’à un intervalle de deux ans ou même plus longtemps, lorsqu’elle est conservée à des températures très froides.
-Les environnements perturbés sont optimaux pour que les spores germent. Ceci explique que dans la plupart des espèces du genre Equisetum, la capacité à se reproduire de façon sexuée est relativement faible[5].
-Par ailleurs, certaines espèces de ce genre possèdent une capacité remarquable de se reproduire de façon végétative. Cette capacité leur permet de compenser l’inefficacité de la reproduction sexuée en produisant des rhizomes pour rapidement coloniser un environnement perturbé. Ces plantes produisent des réseaux de rhizomes extensifs et profonds, ce qui leur permet d’atteindre des sources d’eaux profondes, et aussi, de survivre à des incendies et de recoloniser les sites incendiés très rapidement[5].
+Les environnements perturbés sont optimaux pour que les spores germent. Ceci explique que dans la plupart des espèces du genre Equisetum, la capacité à se reproduire de façon sexuée est relativement faible.
+Par ailleurs, certaines espèces de ce genre possèdent une capacité remarquable de se reproduire de façon végétative. Cette capacité leur permet de compenser l’inefficacité de la reproduction sexuée en produisant des rhizomes pour rapidement coloniser un environnement perturbé. Ces plantes produisent des réseaux de rhizomes extensifs et profonds, ce qui leur permet d’atteindre des sources d’eaux profondes, et aussi, de survivre à des incendies et de recoloniser les sites incendiés très rapidement.
 </t>
         </is>
       </c>
@@ -645,11 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptations aux sols saturés en eau
-Dans un sol saturé en eau, les conditions sont habituellement anoxiques. Les plantes doivent donc posséder des adaptations morphologiques et physiologiques pour faciliter le transport de l’oxygène provenant de l’atmosphère vers les organes souterrains de la plante. Chez beaucoup de plantes de terres humides, des structures spécialisées permettent le transport de l’oxygène (O2) et du dioxyde de carbone (CO2) d’une partie de la plante à une autre. Chez les Equisetum des terres humides, les rhizomes et les racines possèdent de larges canaux, dont la fonction possible est celle de faciliter le transport de l’oxygène[5].
-Importance du silicium
-Une autre remarquable caractéristique des membres du genre Equisetum est leur capacité d’intégrer le silicium et de l’accumuler dans leurs tissus. Cette accumulation confère une certaine rigidité et stabilité à la plante. Plusieurs recherches indiquent que la silice peut procurer une protection contre les champignons pathogènes et contre les attaques des insectes[5].
-Un mécanisme inconnu chez les plantes pourrait également utiliser le titane pour stimuler la production d'hydrates de carbone et encourager la croissance. Cela pourrait expliquer pourquoi la plupart des plantes contiennent environ 1 partie par million (ppm) de titane, les plantes alimentaires en contiennent environ 2 ppm, et la prêle et l'ortie en contiennent jusqu'à 80 ppm[6].
+          <t>Adaptations aux sols saturés en eau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un sol saturé en eau, les conditions sont habituellement anoxiques. Les plantes doivent donc posséder des adaptations morphologiques et physiologiques pour faciliter le transport de l’oxygène provenant de l’atmosphère vers les organes souterrains de la plante. Chez beaucoup de plantes de terres humides, des structures spécialisées permettent le transport de l’oxygène (O2) et du dioxyde de carbone (CO2) d’une partie de la plante à une autre. Chez les Equisetum des terres humides, les rhizomes et les racines possèdent de larges canaux, dont la fonction possible est celle de faciliter le transport de l’oxygène.
 </t>
         </is>
       </c>
@@ -675,12 +697,52 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Importance du silicium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre remarquable caractéristique des membres du genre Equisetum est leur capacité d’intégrer le silicium et de l’accumuler dans leurs tissus. Cette accumulation confère une certaine rigidité et stabilité à la plante. Plusieurs recherches indiquent que la silice peut procurer une protection contre les champignons pathogènes et contre les attaques des insectes.
+Un mécanisme inconnu chez les plantes pourrait également utiliser le titane pour stimuler la production d'hydrates de carbone et encourager la croissance. Cela pourrait expliquer pourquoi la plupart des plantes contiennent environ 1 partie par million (ppm) de titane, les plantes alimentaires en contiennent environ 2 ppm, et la prêle et l'ortie en contiennent jusqu'à 80 ppm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Equisetum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (19 avril 2021)[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (19 avril 2021) :
 Equisetum ×alsaticum (H.P.Fuchs &amp; Geissert) G.Phil ex Lubienski &amp; Bennert
 Equisetum arvense L.
 Equisetum ×ascendens Lubienski &amp; Bennert
@@ -730,37 +792,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Equisetum</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Observations</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, les déplacements aléatoires de spores d'Equisetum sont observés par le Laboratoire interdisciplinaire de physique[7] et décrits comme des sauts de puces en fonction de l'humidité ambiante[8].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -782,26 +813,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prêle était autrefois utilisée fraîche pour récurer les casseroles ou séchée comme abrasif fin pour poncer finement des pièces d'ébénisterie ou de métal. Cette action de ponçage avait pour verbe : prêler. Cette utilisation ne persiste qu'auprès de certains musiciens qui utilisent encore la prêle pour poncer finement les anches en roseau de leurs instruments à vent (hautbois, clarinettes…). Ces propriétés abrasives viennent de la forte teneur en silice de la plante.
-Alimentaire
-En tisane, la prêle s'utilise en mélange de façon à cacher son amertume.
-Les jeunes pousses coupées en morceaux de diverses espèces (E. arvense, E. hyemale et E. telmateia) étaient mangées crues (en salade...) ou cuites, au moins depuis l’Antiquité romaine[9].
-Les tiges fertiles (sans chlorophylle, les premières à pousser), étaient en Pologne mangées chez la prêle géante et la prêle des champs[9].
-On aurait autrefois mangé le rhizome charnu d’E. fluviatile (dans presque toute l’Europe selon l'ethnobotaniste François Couplan, qui ajoute que des Amérindiens consommaient en Alaska des tubercules au goût de noix de coco, de la taille d’une noix, se formant, à un mètre de profondeur environ sur les racines de la prêle géante (E. telmateia)[9].
-Au Japon, les tiges stériles, que l'on ramasse jusqu'au milieu de l'été, se cuisent à la vapeur puis sont sautées à l'huile, avec une sauce de soja ou de sésame écrasé. Elles sont aussi conservées dans le vinaigre[9].
-En agriculture biologique
-En décoction (aussi appelée purin), la prêle a un effet préventif et curatif sur plusieurs maladies cryptogamiques : cloque du pêcher, mildiou, monilia, oïdiums, tavelures, rouille, maladie des taches noires sur le rosier, botrytis, etc.
-Elle s'utilise en pulvérisation, diluée à 20 %, d'une décoction réalisée en portant à ébullition 10 litres d'eau contenant 1 kg de tiges finement coupées. Cette décoction est prête après avoir laissé le mélange refroidir pendant au moins 12 heures.
-Si on trouve beaucoup de prêles sur un terrain, on peut sonder pour installer un puits : la prêle est indicatrice d'eau affleurante.
-Médicinale
-Les tiges stériles sont utilisées comme diurétique, hémostatique, reminéralisant et antirhumatismal.
-La prêle est riche en sels minéraux utiles pour la santé, et en silice qui est bienfaisante pour la peau[10]. Sous sa forme galénique SIPF, elle est conseillée pour renforcer les phanères[11].
-La prêle est aussi une plante aux vertus hémostatiques reconnues.
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, les déplacements aléatoires de spores d'Equisetum sont observés par le Laboratoire interdisciplinaire de physique et décrits comme des sauts de puces en fonction de l'humidité ambiante.
 </t>
         </is>
       </c>
@@ -827,12 +846,166 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prêle était autrefois utilisée fraîche pour récurer les casseroles ou séchée comme abrasif fin pour poncer finement des pièces d'ébénisterie ou de métal. Cette action de ponçage avait pour verbe : prêler. Cette utilisation ne persiste qu'auprès de certains musiciens qui utilisent encore la prêle pour poncer finement les anches en roseau de leurs instruments à vent (hautbois, clarinettes…). Ces propriétés abrasives viennent de la forte teneur en silice de la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Equisetum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tisane, la prêle s'utilise en mélange de façon à cacher son amertume.
+Les jeunes pousses coupées en morceaux de diverses espèces (E. arvense, E. hyemale et E. telmateia) étaient mangées crues (en salade...) ou cuites, au moins depuis l’Antiquité romaine.
+Les tiges fertiles (sans chlorophylle, les premières à pousser), étaient en Pologne mangées chez la prêle géante et la prêle des champs.
+On aurait autrefois mangé le rhizome charnu d’E. fluviatile (dans presque toute l’Europe selon l'ethnobotaniste François Couplan, qui ajoute que des Amérindiens consommaient en Alaska des tubercules au goût de noix de coco, de la taille d’une noix, se formant, à un mètre de profondeur environ sur les racines de la prêle géante (E. telmateia).
+Au Japon, les tiges stériles, que l'on ramasse jusqu'au milieu de l'été, se cuisent à la vapeur puis sont sautées à l'huile, avec une sauce de soja ou de sésame écrasé. Elles sont aussi conservées dans le vinaigre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Equisetum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En agriculture biologique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décoction (aussi appelée purin), la prêle a un effet préventif et curatif sur plusieurs maladies cryptogamiques : cloque du pêcher, mildiou, monilia, oïdiums, tavelures, rouille, maladie des taches noires sur le rosier, botrytis, etc.
+Elle s'utilise en pulvérisation, diluée à 20 %, d'une décoction réalisée en portant à ébullition 10 litres d'eau contenant 1 kg de tiges finement coupées. Cette décoction est prête après avoir laissé le mélange refroidir pendant au moins 12 heures.
+Si on trouve beaucoup de prêles sur un terrain, on peut sonder pour installer un puits : la prêle est indicatrice d'eau affleurante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Equisetum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Médicinale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges stériles sont utilisées comme diurétique, hémostatique, reminéralisant et antirhumatismal.
+La prêle est riche en sels minéraux utiles pour la santé, et en silice qui est bienfaisante pour la peau. Sous sa forme galénique SIPF, elle est conseillée pour renforcer les phanères.
+La prêle est aussi une plante aux vertus hémostatiques reconnues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Equisetum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 6e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de la prêle[12], généralement chaque 24 juillet du calendrier grégorien.
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de la prêle, généralement chaque 24 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
